--- a/Angelo/Fluxo de Entrada e Saida de Caixa/Fluxo de caixa.xlsx
+++ b/Angelo/Fluxo de Entrada e Saida de Caixa/Fluxo de caixa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,182 @@
         <v>212700</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>32600</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Repo Estoq</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Telefonia</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" t="n">
+        <v>150</v>
+      </c>
+      <c r="E12" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>250</v>
+      </c>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>200</v>
+      </c>
+      <c r="D14" t="n">
+        <v>220</v>
+      </c>
+      <c r="E14" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>350</v>
+      </c>
+      <c r="D15" t="n">
+        <v>350</v>
+      </c>
+      <c r="E15" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aluguel</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Angelo/Fluxo de Entrada e Saida de Caixa/Fluxo de caixa.xlsx
+++ b/Angelo/Fluxo de Entrada e Saida de Caixa/Fluxo de caixa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,10 +549,10 @@
         <v>32600</v>
       </c>
       <c r="D10" t="n">
-        <v>36000</v>
+        <v>36400</v>
       </c>
       <c r="E10" t="n">
-        <v>34000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="11">
@@ -566,10 +566,10 @@
         <v>12000</v>
       </c>
       <c r="D11" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="12">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>1120</v>
       </c>
       <c r="D12" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D13" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E13" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D14" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E14" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>325</v>
+      </c>
+      <c r="E15" t="n">
         <v>350</v>
-      </c>
-      <c r="D15" t="n">
-        <v>350</v>
-      </c>
-      <c r="E15" t="n">
-        <v>460</v>
       </c>
     </row>
     <row r="16">
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D16" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="E16" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="D17" t="n">
-        <v>1700</v>
+        <v>1520</v>
       </c>
       <c r="E17" t="n">
-        <v>1650</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="18">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="D18" t="n">
-        <v>8000</v>
+        <v>6800</v>
       </c>
       <c r="E18" t="n">
-        <v>6000</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="19">
@@ -699,17 +699,51 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D19" t="n">
         <v>3000</v>
       </c>
-      <c r="D19" t="n">
-        <v>5000</v>
-      </c>
       <c r="E19" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Total Saída</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-60160</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-65125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-73720</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saldo Final</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7390</v>
+      </c>
+      <c r="D22" t="n">
+        <v>90125</v>
+      </c>
+      <c r="E22" t="n">
+        <v>138980</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
